--- a/Resource/excel/K-框架-配置列表-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/K-框架-配置列表-(框架维护,请勿修改).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
   <si>
     <t>描述说明</t>
   </si>
@@ -469,11 +469,27 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>执行输出配置表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>execute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>execute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./config/execute.xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1000,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2037,6 +2053,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Resource/excel/K-框架-配置列表-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/K-框架-配置列表-(框架维护,请勿修改).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
   <si>
     <t>描述说明</t>
   </si>
@@ -434,6 +434,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>constant.xml</t>
@@ -463,6 +464,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>filter.xml</t>
@@ -483,6 +485,69 @@
   </si>
   <si>
     <t>./config/execute.xml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskchain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务链配置表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskchain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./config/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>taskchain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xml</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskchainrefresh</t>
+  </si>
+  <si>
+    <t>taskchainrefresh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务链刷新配置表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./config/taskchainrefresh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xml</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1016,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1820,69 +1885,69 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="E32" s="9">
-        <v>1</v>
-      </c>
-      <c r="F32" s="9">
-        <v>1</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
@@ -1899,22 +1964,22 @@
     </row>
     <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>110</v>
+        <v>127</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="E35" s="9">
         <v>1</v>
       </c>
       <c r="F35" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
@@ -1925,16 +1990,16 @@
     </row>
     <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
@@ -1951,16 +2016,16 @@
     </row>
     <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E37" s="9">
         <v>1</v>
@@ -1969,24 +2034,24 @@
         <v>1</v>
       </c>
       <c r="G37" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
@@ -1997,22 +2062,22 @@
       <c r="G38" s="9">
         <v>0</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E39" s="9">
         <v>1</v>
@@ -2021,61 +2086,113 @@
         <v>1</v>
       </c>
       <c r="G39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" s="9" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E40" s="9">
         <v>1</v>
       </c>
       <c r="F40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B43" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="9">
-        <v>1</v>
-      </c>
-      <c r="F41" s="9">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9">
-        <v>1</v>
-      </c>
-      <c r="H41" s="9">
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="9">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/K-框架-配置列表-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/K-框架-配置列表-(框架维护,请勿修改).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -525,19 +525,20 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>taskchainrefresh</t>
-  </si>
-  <si>
-    <t>taskchainrefresh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>任务链刷新配置表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>taskrefresh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskrefresh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>./config/taskchainrefresh</t>
+      <t>./config/taskrefresh</t>
     </r>
     <r>
       <rPr>
@@ -1084,7 +1085,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD33"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1912,13 +1913,13 @@
     </row>
     <row r="33" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>142</v>
